--- a/Quiniela_2021.xlsx
+++ b/Quiniela_2021.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c48cca686ded18b/Jorge LCF/Quiniela/Apertura_2021/Quiniela_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{F0EBBFC7-BD4D-481B-B3BC-D0AD91C21386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02BB2C75-F446-4E12-8A99-1047FBBF59A6}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="13_ncr:1_{F0EBBFC7-BD4D-481B-B3BC-D0AD91C21386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0E298BB-7B25-425B-A239-A0A3DB61C653}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F9BB709C-21B3-4E50-8C2F-E3C67C623EF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{F9BB709C-21B3-4E50-8C2F-E3C67C623EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipos" sheetId="1" r:id="rId1"/>
     <sheet name="Jornadas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="62">
   <si>
     <t>Pos</t>
   </si>
@@ -100,105 +100,105 @@
     <t>Jornada</t>
   </si>
   <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>Visitante</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Marcador</t>
+  </si>
+  <si>
+    <t>Marcador_Jorge</t>
+  </si>
+  <si>
+    <t>Pronóstico_Jorge</t>
+  </si>
+  <si>
+    <t>Marcador_José</t>
+  </si>
+  <si>
+    <t>Pronóstico_José</t>
+  </si>
+  <si>
+    <t>Marcador_Gilberto</t>
+  </si>
+  <si>
+    <t>Pronóstico_Gilberto</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>vs</t>
-  </si>
-  <si>
-    <t>Visitante</t>
+    <t>Empate</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>Atl. San Luis</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>Pumas</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>Tigres</t>
+  </si>
+  <si>
+    <t>3-0</t>
   </si>
   <si>
     <t>J2</t>
   </si>
   <si>
-    <t>Pronóstico_Jorge</t>
-  </si>
-  <si>
-    <t>Pronóstico_Gilberto</t>
-  </si>
-  <si>
-    <t>Pronóstico_José</t>
-  </si>
-  <si>
-    <t>Pumas</t>
-  </si>
-  <si>
-    <t>Tigres</t>
-  </si>
-  <si>
     <t>Puebla</t>
   </si>
   <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>Atl. San Luis</t>
-  </si>
-  <si>
-    <t>Empate</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>1-0</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>3-0</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>Marcador</t>
-  </si>
-  <si>
-    <t>2-0</t>
-  </si>
-  <si>
-    <t>0-0</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>Resultado</t>
-  </si>
-  <si>
-    <t>Marcador_Jorge</t>
-  </si>
-  <si>
-    <t>Marcador_José</t>
-  </si>
-  <si>
-    <t>Marcador_Gilberto</t>
-  </si>
-  <si>
-    <t>4-0</t>
-  </si>
-  <si>
     <t>3-2</t>
   </si>
   <si>
@@ -209,6 +209,18 @@
   </si>
   <si>
     <t>Quéretaro</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>Chivas</t>
+  </si>
+  <si>
+    <t>2-3</t>
   </si>
 </sst>
 </file>
@@ -269,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -357,11 +369,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -450,6 +548,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -772,7 +905,7 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
   </cols>
@@ -936,13 +1069,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849BE4B3-B0F0-41EC-BA09-18432DAC4C09}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="142" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="79" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
@@ -963,57 +1096,57 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>35</v>
@@ -1022,51 +1155,51 @@
         <v>2</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>35</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>12</v>
@@ -1074,13 +1207,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>18</v>
@@ -1089,19 +1222,19 @@
         <v>18</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>35</v>
@@ -1112,13 +1245,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>10</v>
@@ -1127,60 +1260,60 @@
         <v>13</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="L5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>9</v>
@@ -1188,75 +1321,75 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="G7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="I7" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>15</v>
@@ -1264,51 +1397,51 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
@@ -1317,22 +1450,22 @@
         <v>11</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L10" s="17" t="s">
         <v>6</v>
@@ -1340,13 +1473,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>13</v>
@@ -1355,22 +1488,22 @@
         <v>11</v>
       </c>
       <c r="F11" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="34" t="s">
         <v>42</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>38</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>13</v>
@@ -1378,13 +1511,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
@@ -1393,36 +1526,36 @@
         <v>9</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>5</v>
@@ -1431,22 +1564,22 @@
         <v>10</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>10</v>
@@ -1454,13 +1587,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>12</v>
@@ -1469,22 +1602,22 @@
         <v>2</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>2</v>
@@ -1492,51 +1625,51 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E15" s="40" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>7</v>
@@ -1545,22 +1678,22 @@
         <v>3</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>3</v>
@@ -1568,37 +1701,37 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E17" s="40" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>18</v>
@@ -1606,75 +1739,75 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>54</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>47</v>
-      </c>
       <c r="J19" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L19" s="17" t="s">
         <v>55</v>
@@ -1688,7 +1821,7 @@
         <v>57</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>10</v>
@@ -1700,22 +1833,22 @@
         <v>35</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1726,34 +1859,34 @@
         <v>11</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>15</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1764,7 +1897,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>6</v>
@@ -1773,13 +1906,13 @@
         <v>6</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>35</v>
@@ -1802,7 +1935,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>18</v>
@@ -1811,22 +1944,22 @@
         <v>18</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="43" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>5</v>
@@ -1840,34 +1973,34 @@
         <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1878,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>14</v>
@@ -1887,25 +2020,25 @@
         <v>2</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>2</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1913,37 +2046,37 @@
         <v>56</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="L26" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1951,75 +2084,721 @@
         <v>56</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="14" t="s">
+      <c r="C28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" s="48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" s="48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="15" t="s">
+      <c r="H37" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L37" s="48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="17" t="s">
+      <c r="H41" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="24" t="s">
         <v>34</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
